--- a/TestData/UserDetails.xlsx
+++ b/TestData/UserDetails.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="19320" windowHeight="6345" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="19320" windowHeight="6345"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>FirstName</t>
   </si>
@@ -30,9 +30,6 @@
   </si>
   <si>
     <t>Jegadees</t>
-  </si>
-  <si>
-    <t>S.No</t>
   </si>
   <si>
     <t>Name</t>
@@ -139,7 +136,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -147,9 +144,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -446,60 +440,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
-        <v>5</v>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="5">
-        <v>123456</v>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3">
-        <v>123456</v>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="3">
-        <v>123456</v>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -513,7 +494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -524,27 +505,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
